--- a/Документация/Тесты/Tests.xlsx
+++ b/Документация/Тесты/Tests.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipioneer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kate2\Desktop\school-board\Документация\Тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -424,7 +425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,24 +789,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A15" zoomScale="57" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" customWidth="1"/>
+    <col min="6" max="6" width="55.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -864,7 +865,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -924,7 +925,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -954,7 +955,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
@@ -984,7 +985,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -1014,7 +1015,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1044,7 +1045,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -1074,7 +1075,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -1134,7 +1135,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1224,7 +1225,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -1254,7 +1255,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1344,7 +1345,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -1404,7 +1405,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -1434,7 +1435,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -1468,4 +1469,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F2:AC27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" customWidth="1"/>
+    <col min="19" max="19" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" customWidth="1"/>
+    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="59.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="6:29" x14ac:dyDescent="0.35">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="3"/>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="3"/>
+      <c r="Q9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="3"/>
+      <c r="Q10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="6:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>